--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H2">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.806414908303641</v>
+        <v>0.8369776666666665</v>
       </c>
       <c r="N2">
-        <v>0.806414908303641</v>
+        <v>2.510933</v>
       </c>
       <c r="O2">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="P2">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
       <c r="Q2">
-        <v>1.299182264303081</v>
+        <v>1.756722380834666</v>
       </c>
       <c r="R2">
-        <v>1.299182264303081</v>
+        <v>15.810501427512</v>
       </c>
       <c r="S2">
-        <v>0.006226362569464286</v>
+        <v>0.007518579343321111</v>
       </c>
       <c r="T2">
-        <v>0.006226362569464286</v>
+        <v>0.00751857934332111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H3">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.41824922194762</v>
+        <v>2.427350333333333</v>
       </c>
       <c r="N3">
-        <v>2.41824922194762</v>
+        <v>7.282051</v>
       </c>
       <c r="O3">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="P3">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="Q3">
-        <v>3.895942978569172</v>
+        <v>5.094736486429334</v>
       </c>
       <c r="R3">
-        <v>3.895942978569172</v>
+        <v>45.852628377864</v>
       </c>
       <c r="S3">
-        <v>0.01867140138919826</v>
+        <v>0.0218049140401639</v>
       </c>
       <c r="T3">
-        <v>0.01867140138919826</v>
+        <v>0.02180491404016389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H4">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.99268055732846</v>
+        <v>8.785681666666667</v>
       </c>
       <c r="N4">
-        <v>7.99268055732846</v>
+        <v>26.357045</v>
       </c>
       <c r="O4">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="P4">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="Q4">
-        <v>12.87668260767236</v>
+        <v>18.44016182198667</v>
       </c>
       <c r="R4">
-        <v>12.87668260767236</v>
+        <v>165.96145639788</v>
       </c>
       <c r="S4">
-        <v>0.06171181427749179</v>
+        <v>0.07892187250236665</v>
       </c>
       <c r="T4">
-        <v>0.06171181427749179</v>
+        <v>0.07892187250236664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H5">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.806414908303641</v>
+        <v>0.8369776666666665</v>
       </c>
       <c r="N5">
-        <v>0.806414908303641</v>
+        <v>2.510933</v>
       </c>
       <c r="O5">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="P5">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
       <c r="Q5">
-        <v>12.59022490947639</v>
+        <v>13.28714070412478</v>
       </c>
       <c r="R5">
-        <v>12.59022490947639</v>
+        <v>119.584266337123</v>
       </c>
       <c r="S5">
-        <v>0.06033895879848085</v>
+        <v>0.05686750662467695</v>
       </c>
       <c r="T5">
-        <v>0.06033895879848085</v>
+        <v>0.05686750662467695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H6">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.41824922194762</v>
+        <v>2.427350333333333</v>
       </c>
       <c r="N6">
-        <v>2.41824922194762</v>
+        <v>7.282051</v>
       </c>
       <c r="O6">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="P6">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="Q6">
-        <v>37.75513234934245</v>
+        <v>38.53453527099789</v>
       </c>
       <c r="R6">
-        <v>37.75513234934245</v>
+        <v>346.810817438981</v>
       </c>
       <c r="S6">
-        <v>0.1809423891660176</v>
+        <v>0.1649235895516669</v>
       </c>
       <c r="T6">
-        <v>0.1809423891660176</v>
+        <v>0.1649235895516668</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H7">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.99268055732846</v>
+        <v>8.785681666666667</v>
       </c>
       <c r="N7">
-        <v>7.99268055732846</v>
+        <v>26.357045</v>
       </c>
       <c r="O7">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="P7">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="Q7">
-        <v>124.7864403425366</v>
+        <v>139.4739586679328</v>
       </c>
       <c r="R7">
-        <v>124.7864403425366</v>
+        <v>1255.265628011395</v>
       </c>
       <c r="S7">
-        <v>0.5980420474276137</v>
+        <v>0.5969332639080408</v>
       </c>
       <c r="T7">
-        <v>0.5980420474276137</v>
+        <v>0.5969332639080408</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H8">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.806414908303641</v>
+        <v>0.8369776666666665</v>
       </c>
       <c r="N8">
-        <v>0.806414908303641</v>
+        <v>2.510933</v>
       </c>
       <c r="O8">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="P8">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
       <c r="Q8">
-        <v>1.111038397732961</v>
+        <v>1.185213942570666</v>
       </c>
       <c r="R8">
-        <v>1.111038397732961</v>
+        <v>10.666925483136</v>
       </c>
       <c r="S8">
-        <v>0.005324678517369504</v>
+        <v>0.005072585835557049</v>
       </c>
       <c r="T8">
-        <v>0.005324678517369504</v>
+        <v>0.005072585835557049</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H9">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.41824922194762</v>
+        <v>2.427350333333333</v>
       </c>
       <c r="N9">
-        <v>2.41824922194762</v>
+        <v>7.282051</v>
       </c>
       <c r="O9">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="P9">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="Q9">
-        <v>3.331743638672923</v>
+        <v>3.437283422421333</v>
       </c>
       <c r="R9">
-        <v>3.331743638672923</v>
+        <v>30.935550801792</v>
       </c>
       <c r="S9">
-        <v>0.01596746234371654</v>
+        <v>0.01471119649803641</v>
       </c>
       <c r="T9">
-        <v>0.01596746234371654</v>
+        <v>0.01471119649803641</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H10">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.99268055732846</v>
+        <v>8.785681666666667</v>
       </c>
       <c r="N10">
-        <v>7.99268055732846</v>
+        <v>26.357045</v>
       </c>
       <c r="O10">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="P10">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="Q10">
-        <v>11.0119181931864</v>
+        <v>12.44108752362667</v>
       </c>
       <c r="R10">
-        <v>11.0119181931864</v>
+        <v>111.96978771264</v>
       </c>
       <c r="S10">
-        <v>0.05277488551064726</v>
+        <v>0.05324649169617022</v>
       </c>
       <c r="T10">
-        <v>0.05277488551064726</v>
+        <v>0.0532464916961702</v>
       </c>
     </row>
   </sheetData>
